--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA2C6AB-76B5-4949-A329-7A858DB4B393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ADABFE-96A8-4D2A-A207-6A460A7A9926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataMappingSheet_SD" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="120">
   <si>
     <t>ScreenName</t>
   </si>
@@ -167,6 +167,237 @@
   </si>
   <si>
     <t>RecallAndResubmitRecord</t>
+  </si>
+  <si>
+    <t>FolioHistory</t>
+  </si>
+  <si>
+    <t>FolioScreeningReview</t>
+  </si>
+  <si>
+    <t>FolioContactLog</t>
+  </si>
+  <si>
+    <t>FolioTribalInquiry</t>
+  </si>
+  <si>
+    <t>FolioAllegations</t>
+  </si>
+  <si>
+    <t>FolioDetails</t>
+  </si>
+  <si>
+    <t>Assignments</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>LocationServicesOrg</t>
+  </si>
+  <si>
+    <t>CredentialsOrg</t>
+  </si>
+  <si>
+    <t>SpecializationsOrg</t>
+  </si>
+  <si>
+    <t>PersonContactLogMembers</t>
+  </si>
+  <si>
+    <t>PersonDetails</t>
+  </si>
+  <si>
+    <t>PersonAKA</t>
+  </si>
+  <si>
+    <t>PersonHouseholdMemberships</t>
+  </si>
+  <si>
+    <t>PersonAddresses</t>
+  </si>
+  <si>
+    <t>PersonPhone</t>
+  </si>
+  <si>
+    <t>PersonRelationships</t>
+  </si>
+  <si>
+    <t>PersonTribalInformation</t>
+  </si>
+  <si>
+    <t>FolioPerson</t>
+  </si>
+  <si>
+    <t>Folioaddendums</t>
+  </si>
+  <si>
+    <t>FolioDisposition</t>
+  </si>
+  <si>
+    <t>FolioValidatePerson</t>
+  </si>
+  <si>
+    <t>PersonBIBackgroundChecks</t>
+  </si>
+  <si>
+    <t>FolioCommercialSexualExploitation</t>
+  </si>
+  <si>
+    <t>FolioDocuments</t>
+  </si>
+  <si>
+    <t>PersonHealthInformation</t>
+  </si>
+  <si>
+    <t>PersonBHDiagnosis</t>
+  </si>
+  <si>
+    <t>PersonBehavioralEmotionalNeeds</t>
+  </si>
+  <si>
+    <t>PersonalStrengthsCopingSkills</t>
+  </si>
+  <si>
+    <t>SubstanceDependencyTreatment</t>
+  </si>
+  <si>
+    <t>PersonLegalIssues</t>
+  </si>
+  <si>
+    <t>AlcoholDependencyTreatment</t>
+  </si>
+  <si>
+    <t>OtherHealthInsuranceCoverage</t>
+  </si>
+  <si>
+    <t>PersonPrescriptionDrugs</t>
+  </si>
+  <si>
+    <t>FolioChildLocations</t>
+  </si>
+  <si>
+    <t>FolioPlacement</t>
+  </si>
+  <si>
+    <t>FolioChildLocationAbsences</t>
+  </si>
+  <si>
+    <t>ChildLocationCorrespondences</t>
+  </si>
+  <si>
+    <t>PlacementPreservationStrategy</t>
+  </si>
+  <si>
+    <t>cares\Common.xlsx</t>
+  </si>
+  <si>
+    <t>cares\Screening.xlsx</t>
+  </si>
+  <si>
+    <t>cares\Service.xlsx</t>
+  </si>
+  <si>
+    <t>cares\Organization.xlsx</t>
+  </si>
+  <si>
+    <t>cares\Folio.xlsx</t>
+  </si>
+  <si>
+    <t>cares\Person.xlsx</t>
+  </si>
+  <si>
+    <t>PersonSearch</t>
+  </si>
+  <si>
+    <t>ActivePersonAddress</t>
+  </si>
+  <si>
+    <t>InactivePersonAddress</t>
+  </si>
+  <si>
+    <t>PersonBIROI</t>
+  </si>
+  <si>
+    <t>PersonBIJSI</t>
+  </si>
+  <si>
+    <t>PersonEIEducation</t>
+  </si>
+  <si>
+    <t>PersonEIPostEducationSupport</t>
+  </si>
+  <si>
+    <t>AlcoholOrSubstanceUse</t>
+  </si>
+  <si>
+    <t>PersonAllergies</t>
+  </si>
+  <si>
+    <t>PersonDentalExam</t>
+  </si>
+  <si>
+    <t>HearingImpairmentAndDeafness</t>
+  </si>
+  <si>
+    <t>PersonImmunizations</t>
+  </si>
+  <si>
+    <t>MedicalEquipmentRequiredInformation</t>
+  </si>
+  <si>
+    <t>MedicalEquipmentRequired</t>
+  </si>
+  <si>
+    <t>PersonMedicalExamsInformation</t>
+  </si>
+  <si>
+    <t>PersonMedicationsInformation</t>
+  </si>
+  <si>
+    <t>PersonPregnancy</t>
+  </si>
+  <si>
+    <t>PersonRegionalCenterInformation</t>
+  </si>
+  <si>
+    <t>PersonSpecialDietRequired</t>
+  </si>
+  <si>
+    <t>PersonHIMediCal</t>
+  </si>
+  <si>
+    <t>PersonHIMedicaid</t>
+  </si>
+  <si>
+    <t>PersonMentalHealth</t>
+  </si>
+  <si>
+    <t>PersonOtherHealthInsuranceCoverage</t>
+  </si>
+  <si>
+    <t>PersonHospitalizations</t>
+  </si>
+  <si>
+    <t>PersonPHVisualImpairement</t>
+  </si>
+  <si>
+    <t>PostSecondaryEducationSupport</t>
+  </si>
+  <si>
+    <t>PriorAdoptionAndGuardianship</t>
+  </si>
+  <si>
+    <t>PriorAdoption</t>
+  </si>
+  <si>
+    <t>PriorGuardianship</t>
+  </si>
+  <si>
+    <t>FolioERRDoc</t>
+  </si>
+  <si>
+    <t>FolioERR</t>
   </si>
 </sst>
 </file>
@@ -231,10 +462,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -570,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -587,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -601,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -615,7 +848,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -629,7 +862,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -646,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -660,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -674,7 +907,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -688,7 +921,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -702,7 +935,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -716,7 +949,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -730,7 +963,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -744,7 +977,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -758,7 +991,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -772,7 +1005,7 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -786,7 +1019,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -800,7 +1033,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -814,7 +1047,7 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -828,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -842,7 +1075,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -856,7 +1089,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -870,7 +1103,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -884,7 +1117,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -898,7 +1131,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -909,13 +1142,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -923,13 +1156,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -937,43 +1170,1037 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102">
         <v>1</v>
       </c>
     </row>
@@ -1126,6 +2353,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E343A23AD63CB41B4E4C7703478C338" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a98c6998acff090412b04a3311ec21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d0b0af3-6c81-4d06-b483-03fba4523004" xmlns:ns3="ca3b047a-aabc-42bd-9935-6afcb58edb36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f3fa3ae5ecf51694a738fe5aa86796b" ns2:_="" ns3:_="">
     <xsd:import namespace="4d0b0af3-6c81-4d06-b483-03fba4523004"/>
@@ -1342,22 +2584,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EE9325-298A-440D-A145-9EF7C68E0DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1374,21 +2618,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ADABFE-96A8-4D2A-A207-6A460A7A9926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C60AE-4739-4339-85F9-51B4A575C5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="119">
   <si>
     <t>ScreenName</t>
   </si>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t>PriorGuardianship</t>
-  </si>
-  <si>
-    <t>FolioERRDoc</t>
   </si>
   <si>
     <t>FolioERR</t>
@@ -751,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1428,7 +1425,7 @@
         <v>87</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -2353,18 +2350,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2585,18 +2582,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C60AE-4739-4339-85F9-51B4A575C5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD4EC3-CBBD-4833-A1AE-9D054D34C59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1363,13 +1363,13 @@
     </row>
     <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1391,13 +1391,13 @@
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1405,13 +1405,13 @@
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1419,13 +1419,13 @@
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -2350,21 +2350,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E343A23AD63CB41B4E4C7703478C338" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a98c6998acff090412b04a3311ec21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d0b0af3-6c81-4d06-b483-03fba4523004" xmlns:ns3="ca3b047a-aabc-42bd-9935-6afcb58edb36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f3fa3ae5ecf51694a738fe5aa86796b" ns2:_="" ns3:_="">
     <xsd:import namespace="4d0b0af3-6c81-4d06-b483-03fba4523004"/>
@@ -2581,24 +2566,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EE9325-298A-440D-A145-9EF7C68E0DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2615,4 +2598,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD4EC3-CBBD-4833-A1AE-9D054D34C59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABDA4D3-CFDC-4BC1-AA80-097E2D00E2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="120">
   <si>
     <t>ScreenName</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>FolioERR</t>
+  </si>
+  <si>
+    <t>FolioSubmitForApproval</t>
   </si>
 </sst>
 </file>
@@ -746,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:D43"/>
+      <selection activeCell="A44" sqref="A44:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1377,27 +1380,21 @@
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1405,13 +1402,13 @@
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1419,41 +1416,41 @@
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48">
+      <c r="B48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1461,83 +1458,83 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>86</v>
       </c>
       <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="B52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="3">
+        <v>55</v>
+      </c>
+      <c r="D54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -1545,13 +1542,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -1559,27 +1556,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -1587,83 +1584,83 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B62" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="4">
+      <c r="D63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -1671,13 +1668,13 @@
     </row>
     <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1685,69 +1682,69 @@
     </row>
     <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="B67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="B68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="B69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69">
+      <c r="D69" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1755,111 +1752,111 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72">
+      <c r="D72" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
         <v>75</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" s="4" t="s">
+      <c r="B75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75">
+      <c r="D75" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
         <v>77</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="4">
+      <c r="D77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -1867,13 +1864,13 @@
     </row>
     <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -1881,13 +1878,13 @@
     </row>
     <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -1895,13 +1892,13 @@
     </row>
     <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -1909,13 +1906,13 @@
     </row>
     <row r="82" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -1923,13 +1920,13 @@
     </row>
     <row r="83" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -1937,13 +1934,13 @@
     </row>
     <row r="84" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -1951,13 +1948,13 @@
     </row>
     <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -1965,13 +1962,13 @@
     </row>
     <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -1979,13 +1976,13 @@
     </row>
     <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -1993,13 +1990,13 @@
     </row>
     <row r="88" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2007,13 +2004,13 @@
     </row>
     <row r="89" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2021,13 +2018,13 @@
     </row>
     <row r="90" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2035,13 +2032,13 @@
     </row>
     <row r="91" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2049,13 +2046,13 @@
     </row>
     <row r="92" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2063,13 +2060,13 @@
     </row>
     <row r="93" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2077,13 +2074,13 @@
     </row>
     <row r="94" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2091,13 +2088,13 @@
     </row>
     <row r="95" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2105,13 +2102,13 @@
     </row>
     <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2119,13 +2116,13 @@
     </row>
     <row r="97" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2133,55 +2130,55 @@
     </row>
     <row r="98" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>78</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>78</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>81</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2189,15 +2186,29 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C102" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>82</v>
       </c>
-      <c r="D102">
+      <c r="B103" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103">
         <v>1</v>
       </c>
     </row>
@@ -2567,18 +2578,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2601,18 +2612,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\26jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABDA4D3-CFDC-4BC1-AA80-097E2D00E2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29BA396-0F72-4696-B967-429DD1D4CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="120">
   <si>
     <t>ScreenName</t>
   </si>
@@ -752,7 +752,7 @@
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B44"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1381,6 +1381,9 @@
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>119</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>119</v>
@@ -2361,6 +2364,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E343A23AD63CB41B4E4C7703478C338" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a98c6998acff090412b04a3311ec21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d0b0af3-6c81-4d06-b483-03fba4523004" xmlns:ns3="ca3b047a-aabc-42bd-9935-6afcb58edb36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f3fa3ae5ecf51694a738fe5aa86796b" ns2:_="" ns3:_="">
     <xsd:import namespace="4d0b0af3-6c81-4d06-b483-03fba4523004"/>
@@ -2577,22 +2595,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EE9325-298A-440D-A145-9EF7C68E0DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2609,21 +2629,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\26jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29BA396-0F72-4696-B967-429DD1D4CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD69E4A-F624-410E-AB65-93C5C1A1FE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="122">
   <si>
     <t>ScreenName</t>
   </si>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>FolioSubmitForApproval</t>
+  </si>
+  <si>
+    <t>FolioApprovalAndAuditHistory</t>
+  </si>
+  <si>
+    <t>FolioApprovalandAuditHistory</t>
   </si>
 </sst>
 </file>
@@ -749,9 +755,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="88" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -1380,38 +1386,38 @@
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1419,13 +1425,13 @@
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1433,41 +1439,41 @@
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49">
+      <c r="B49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1475,83 +1481,83 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>86</v>
       </c>
       <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="3">
+        <v>55</v>
+      </c>
+      <c r="D55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -1559,13 +1565,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
@@ -1573,27 +1579,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -1601,83 +1607,83 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="B63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="4" t="s">
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="4">
+      <c r="D64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1685,13 +1691,13 @@
     </row>
     <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1699,69 +1705,69 @@
     </row>
     <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="B68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="B69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="B70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70">
+      <c r="D70" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1769,111 +1775,111 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73">
+      <c r="D73" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
         <v>75</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="B76" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76">
+      <c r="D76" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
         <v>77</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D78" s="4">
+      <c r="D78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -1881,13 +1887,13 @@
     </row>
     <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -1895,13 +1901,13 @@
     </row>
     <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -1909,13 +1915,13 @@
     </row>
     <row r="82" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -1923,13 +1929,13 @@
     </row>
     <row r="83" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -1937,13 +1943,13 @@
     </row>
     <row r="84" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -1951,13 +1957,13 @@
     </row>
     <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -1965,13 +1971,13 @@
     </row>
     <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -1979,13 +1985,13 @@
     </row>
     <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -1993,13 +1999,13 @@
     </row>
     <row r="88" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2007,13 +2013,13 @@
     </row>
     <row r="89" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2021,13 +2027,13 @@
     </row>
     <row r="90" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2035,13 +2041,13 @@
     </row>
     <row r="91" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2049,13 +2055,13 @@
     </row>
     <row r="92" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2063,13 +2069,13 @@
     </row>
     <row r="93" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2077,13 +2083,13 @@
     </row>
     <row r="94" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2091,13 +2097,13 @@
     </row>
     <row r="95" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2105,13 +2111,13 @@
     </row>
     <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2119,13 +2125,13 @@
     </row>
     <row r="97" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2133,13 +2139,13 @@
     </row>
     <row r="98" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2147,55 +2153,55 @@
     </row>
     <row r="99" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>78</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>78</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>81</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2203,15 +2209,29 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>82</v>
       </c>
-      <c r="D103">
+      <c r="B104" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104">
         <v>1</v>
       </c>
     </row>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\26jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD69E4A-F624-410E-AB65-93C5C1A1FE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA112A50-C9E8-45D4-9336-71E6AF826EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="123">
   <si>
     <t>ScreenName</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>FolioApprovalandAuditHistory</t>
+  </si>
+  <si>
+    <t>FolioNewCase</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -755,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1189,28 +1193,28 @@
       </c>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="C30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1218,13 +1222,13 @@
     </row>
     <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1232,13 +1236,13 @@
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1246,13 +1250,13 @@
     </row>
     <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1260,13 +1264,13 @@
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1274,13 +1278,13 @@
     </row>
     <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1288,13 +1292,13 @@
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1302,13 +1306,13 @@
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -1316,13 +1320,13 @@
     </row>
     <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -1330,13 +1334,13 @@
     </row>
     <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1344,13 +1348,13 @@
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1358,13 +1362,13 @@
     </row>
     <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1372,13 +1376,13 @@
     </row>
     <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1386,13 +1390,13 @@
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1400,38 +1404,38 @@
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1439,13 +1443,13 @@
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1453,41 +1457,41 @@
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50">
+      <c r="B50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1495,83 +1499,83 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>86</v>
       </c>
       <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="3">
+        <v>55</v>
+      </c>
+      <c r="D56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
@@ -1579,13 +1583,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -1593,27 +1597,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
@@ -1621,83 +1625,83 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="4" t="s">
+      <c r="B64" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B64" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="4">
+      <c r="D65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1705,13 +1709,13 @@
     </row>
     <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -1719,69 +1723,69 @@
     </row>
     <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="B69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="B70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="B71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" t="s">
-        <v>71</v>
-      </c>
-      <c r="D71">
+      <c r="D71" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1789,111 +1793,111 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74">
+      <c r="D74" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
         <v>75</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="B77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77">
+      <c r="D77" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" t="s">
         <v>77</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="4">
+      <c r="D79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -1901,13 +1905,13 @@
     </row>
     <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -1915,13 +1919,13 @@
     </row>
     <row r="82" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -1929,13 +1933,13 @@
     </row>
     <row r="83" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -1943,13 +1947,13 @@
     </row>
     <row r="84" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -1957,13 +1961,13 @@
     </row>
     <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -1971,13 +1975,13 @@
     </row>
     <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -1985,13 +1989,13 @@
     </row>
     <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -1999,13 +2003,13 @@
     </row>
     <row r="88" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2013,13 +2017,13 @@
     </row>
     <row r="89" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2027,13 +2031,13 @@
     </row>
     <row r="90" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2041,13 +2045,13 @@
     </row>
     <row r="91" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2055,13 +2059,13 @@
     </row>
     <row r="92" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2069,13 +2073,13 @@
     </row>
     <row r="93" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2083,13 +2087,13 @@
     </row>
     <row r="94" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2097,13 +2101,13 @@
     </row>
     <row r="95" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2111,13 +2115,13 @@
     </row>
     <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2125,13 +2129,13 @@
     </row>
     <row r="97" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2139,13 +2143,13 @@
     </row>
     <row r="98" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2153,13 +2157,13 @@
     </row>
     <row r="99" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2167,55 +2171,55 @@
     </row>
     <row r="100" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D100" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>78</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>78</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>81</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2223,15 +2227,29 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>82</v>
       </c>
-      <c r="D104">
+      <c r="B105" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105">
         <v>1</v>
       </c>
     </row>
@@ -2390,15 +2408,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E343A23AD63CB41B4E4C7703478C338" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a98c6998acff090412b04a3311ec21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d0b0af3-6c81-4d06-b483-03fba4523004" xmlns:ns3="ca3b047a-aabc-42bd-9935-6afcb58edb36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f3fa3ae5ecf51694a738fe5aa86796b" ns2:_="" ns3:_="">
     <xsd:import namespace="4d0b0af3-6c81-4d06-b483-03fba4523004"/>
@@ -2615,6 +2624,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
@@ -2625,14 +2643,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EE9325-298A-440D-A145-9EF7C68E0DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2649,4 +2659,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\26jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA112A50-C9E8-45D4-9336-71E6AF826EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1504A81-A78F-470A-BDEE-16B014A95833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,9 +241,6 @@
     <t>PersonBIBackgroundChecks</t>
   </si>
   <si>
-    <t>FolioCommercialSexualExploitation</t>
-  </si>
-  <si>
     <t>FolioDocuments</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>FolioNewCase</t>
+  </si>
+  <si>
+    <t>FolioCommercialSexualExploite</t>
   </si>
 </sst>
 </file>
@@ -762,7 +762,7 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D30"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -813,7 +813,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -844,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -858,7 +858,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -872,7 +872,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -889,7 +889,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -903,7 +903,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -917,7 +917,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -931,7 +931,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -945,7 +945,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -959,7 +959,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -973,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -987,7 +987,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -1001,7 +1001,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -1015,7 +1015,7 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1029,7 +1029,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -1043,7 +1043,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -1057,7 +1057,7 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -1071,7 +1071,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -1085,7 +1085,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -1099,7 +1099,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -1113,7 +1113,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -1127,7 +1127,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -1155,7 +1155,7 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -1169,7 +1169,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1183,7 +1183,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -1194,13 +1194,13 @@
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1211,7 +1211,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>39</v>
@@ -1225,7 +1225,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>40</v>
@@ -1239,7 +1239,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>41</v>
@@ -1253,7 +1253,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>43</v>
@@ -1267,7 +1267,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>44</v>
@@ -1281,7 +1281,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>45</v>
@@ -1295,7 +1295,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>46</v>
@@ -1309,7 +1309,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>47</v>
@@ -1323,7 +1323,7 @@
         <v>64</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>64</v>
@@ -1334,13 +1334,13 @@
     </row>
     <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>48</v>
@@ -1365,7 +1365,7 @@
         <v>62</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>62</v>
@@ -1379,7 +1379,7 @@
         <v>65</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>65</v>
@@ -1390,13 +1390,13 @@
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1432,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>28</v>
@@ -1446,7 +1446,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1460,7 +1460,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>63</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>51</v>
@@ -1502,7 +1502,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>52</v>
@@ -1516,7 +1516,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
         <v>53</v>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1544,7 +1544,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>54</v>
@@ -1558,7 +1558,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>55</v>
@@ -1572,7 +1572,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>56</v>
@@ -1586,7 +1586,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>57</v>
@@ -1600,7 +1600,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>58</v>
@@ -1614,7 +1614,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>59</v>
@@ -1628,7 +1628,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>60</v>
@@ -1642,7 +1642,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>61</v>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>66</v>
@@ -1695,13 +1695,13 @@
     </row>
     <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -1723,13 +1723,13 @@
     </row>
     <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -1751,13 +1751,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1765,13 +1765,13 @@
     </row>
     <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -1821,13 +1821,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1835,13 +1835,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="77" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -1863,13 +1863,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="82" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="83" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -1947,13 +1947,13 @@
     </row>
     <row r="84" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -1961,13 +1961,13 @@
     </row>
     <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -1989,13 +1989,13 @@
     </row>
     <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="88" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="89" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2031,13 +2031,13 @@
     </row>
     <row r="90" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="91" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2059,13 +2059,13 @@
     </row>
     <row r="92" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2073,13 +2073,13 @@
     </row>
     <row r="93" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2087,13 +2087,13 @@
     </row>
     <row r="94" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2101,13 +2101,13 @@
     </row>
     <row r="95" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="97" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="98" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2157,13 +2157,13 @@
     </row>
     <row r="99" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2171,13 +2171,13 @@
     </row>
     <row r="100" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2185,13 +2185,13 @@
     </row>
     <row r="101" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2199,13 +2199,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2213,13 +2213,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2227,13 +2227,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2402,12 +2402,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E343A23AD63CB41B4E4C7703478C338" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a98c6998acff090412b04a3311ec21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d0b0af3-6c81-4d06-b483-03fba4523004" xmlns:ns3="ca3b047a-aabc-42bd-9935-6afcb58edb36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f3fa3ae5ecf51694a738fe5aa86796b" ns2:_="" ns3:_="">
     <xsd:import namespace="4d0b0af3-6c81-4d06-b483-03fba4523004"/>
@@ -2624,6 +2618,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2634,15 +2634,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EE9325-298A-440D-A145-9EF7C68E0DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2661,6 +2652,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB3B409-6125-40F7-8FF0-A0189E50E897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3D983C-08D6-404E-86C6-B40529E692F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$130</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="151">
   <si>
     <t>ScreenName</t>
   </si>
@@ -222,6 +222,21 @@
     <t>FolioPromoteToCase</t>
   </si>
   <si>
+    <t>FolioPlacement</t>
+  </si>
+  <si>
+    <t>FolioChildLocations</t>
+  </si>
+  <si>
+    <t>FolioChildLocationAbsences</t>
+  </si>
+  <si>
+    <t>ChildLocationCorrespondences</t>
+  </si>
+  <si>
+    <t>PlacementPreservationStrategy</t>
+  </si>
+  <si>
     <t>LocationServicesOrg</t>
   </si>
   <si>
@@ -231,6 +246,18 @@
     <t>SpecializationsOrg</t>
   </si>
   <si>
+    <t>ProviderSearch</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Addresses</t>
+  </si>
+  <si>
+    <t>RelatedPersons</t>
+  </si>
+  <si>
     <t>PersonSearch</t>
   </si>
   <si>
@@ -270,6 +297,9 @@
     <t>PersonBIBackgroundChecks</t>
   </si>
   <si>
+    <t>PersonHistory</t>
+  </si>
+  <si>
     <t>PersonBIROI</t>
   </si>
   <si>
@@ -279,9 +309,6 @@
     <t>PersonEIEducation</t>
   </si>
   <si>
-    <t>PersonEIPostEducationSupport</t>
-  </si>
-  <si>
     <t>PersonHealthInformation</t>
   </si>
   <si>
@@ -375,19 +402,22 @@
     <t>PriorGuardianship</t>
   </si>
   <si>
-    <t>FolioPlacement</t>
-  </si>
-  <si>
-    <t>FolioChildLocations</t>
-  </si>
-  <si>
-    <t>FolioChildLocationAbsences</t>
-  </si>
-  <si>
-    <t>ChildLocationCorrespondences</t>
-  </si>
-  <si>
-    <t>PlacementPreservationStrategy</t>
+    <t>SchoolDisciplinaryIssues</t>
+  </si>
+  <si>
+    <t>cares\Placement.xlsx</t>
+  </si>
+  <si>
+    <t>FolioChildLocationContactLogs</t>
+  </si>
+  <si>
+    <t>Removal</t>
+  </si>
+  <si>
+    <t>OverstayReportDetails</t>
+  </si>
+  <si>
+    <t>OverstayReportSubmission</t>
   </si>
   <si>
     <t>NewCase</t>
@@ -435,6 +465,12 @@
     <t>FolioFamilyTransfer</t>
   </si>
   <si>
+    <t>CaseContactLog</t>
+  </si>
+  <si>
+    <t>CaseTribalInquiry</t>
+  </si>
+  <si>
     <t>InitialScreening</t>
   </si>
   <si>
@@ -457,31 +493,13 @@
   </si>
   <si>
     <t>SauceConfirmation</t>
-  </si>
-  <si>
-    <t>SchoolDisciplinaryIssues</t>
-  </si>
-  <si>
-    <t>cares\Placement.xlsx</t>
-  </si>
-  <si>
-    <t>Removal</t>
-  </si>
-  <si>
-    <t>OverstayReportDetails</t>
-  </si>
-  <si>
-    <t>OverstayReportSubmission</t>
-  </si>
-  <si>
-    <t>FolioChildLocationContactLogs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +519,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -545,13 +570,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,10 +860,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1589,13 +1615,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1604,13 +1630,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1619,88 +1645,84 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>63</v>
+    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
       </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>65</v>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>66</v>
+    </row>
+    <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
       </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>67</v>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
       </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1709,13 +1731,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1724,13 +1746,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1739,13 +1761,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1754,43 +1776,43 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
       </c>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1799,28 +1821,28 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
       </c>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -1829,13 +1851,13 @@
     </row>
     <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -1844,88 +1866,88 @@
     </row>
     <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
       </c>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
       </c>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4"/>
+    <row r="71" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
       </c>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -1934,28 +1956,28 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
       </c>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -1964,28 +1986,28 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
       </c>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -1994,13 +2016,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2009,28 +2031,28 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2039,43 +2061,43 @@
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
       </c>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
       </c>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2084,13 +2106,13 @@
     </row>
     <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2099,13 +2121,13 @@
     </row>
     <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2114,13 +2136,13 @@
     </row>
     <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2129,13 +2151,13 @@
     </row>
     <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2144,13 +2166,13 @@
     </row>
     <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2159,13 +2181,13 @@
     </row>
     <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2174,13 +2196,13 @@
     </row>
     <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2189,13 +2211,13 @@
     </row>
     <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2204,13 +2226,13 @@
     </row>
     <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2219,13 +2241,13 @@
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2234,13 +2256,13 @@
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2249,13 +2271,13 @@
     </row>
     <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2264,13 +2286,13 @@
     </row>
     <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2279,13 +2301,13 @@
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2294,13 +2316,13 @@
     </row>
     <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2309,13 +2331,13 @@
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2324,72 +2346,73 @@
     </row>
     <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
       </c>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
       </c>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
       </c>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
       </c>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2398,27 +2421,27 @@
     </row>
     <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -2427,130 +2450,129 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
       </c>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
       </c>
+      <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
       </c>
+      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
       </c>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
       </c>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
       </c>
-      <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2559,13 +2581,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -2574,13 +2596,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2589,13 +2611,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2604,13 +2626,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2619,13 +2641,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2634,13 +2656,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -2649,13 +2671,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
@@ -2664,21 +2686,125 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D124" s="4">
         <v>1</v>
       </c>
       <c r="E124" s="4"/>
     </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" s="4">
+        <v>1</v>
+      </c>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D126" s="4">
+        <v>1</v>
+      </c>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D127" s="4">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1</v>
+      </c>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" s="6">
+        <v>1</v>
+      </c>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1</v>
+      </c>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E130" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2721,10 +2847,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -2738,13 +2864,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2755,13 +2881,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2772,13 +2898,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2789,13 +2915,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2806,13 +2932,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2827,6 +2953,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3043,26 +3188,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3079,22 +3223,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3D983C-08D6-404E-86C6-B40529E692F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD451A7-A79E-4D2E-9BF1-3329FFFD3D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$133</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="154">
   <si>
     <t>ScreenName</t>
   </si>
@@ -493,6 +493,15 @@
   </si>
   <si>
     <t>SauceConfirmation</t>
+  </si>
+  <si>
+    <t>PersonRelated</t>
+  </si>
+  <si>
+    <t>PersonSocialHistory</t>
+  </si>
+  <si>
+    <t>ProviderOptions</t>
   </si>
 </sst>
 </file>
@@ -860,10 +869,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2433,191 +2442,185 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1</v>
-      </c>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D108" s="4">
-        <v>1</v>
-      </c>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
       </c>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
       </c>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
       </c>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
       </c>
+      <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D115" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D116" s="4">
-        <v>1</v>
-      </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="B117" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
       </c>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D118" s="4">
-        <v>1</v>
-      </c>
-      <c r="E118" s="4"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2626,13 +2629,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2641,13 +2644,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2656,13 +2659,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -2671,13 +2674,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
@@ -2686,13 +2689,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D124" s="4">
         <v>1</v>
@@ -2701,13 +2704,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
@@ -2716,13 +2719,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -2731,13 +2734,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -2746,65 +2749,110 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1</v>
+      </c>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1</v>
+      </c>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D130" s="4">
+        <v>1</v>
+      </c>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B131" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D128" s="4">
-        <v>1</v>
-      </c>
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
+      <c r="D131" s="4">
+        <v>1</v>
+      </c>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B132" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C132" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D129" s="6">
-        <v>1</v>
-      </c>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="6" t="s">
+      <c r="D132" s="6">
+        <v>1</v>
+      </c>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B133" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C133" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D130" s="6">
-        <v>1</v>
-      </c>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E130" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E133" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2953,15 +3001,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -2971,7 +3010,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3188,15 +3227,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3206,7 +3246,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3223,4 +3263,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\TestData5feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD451A7-A79E-4D2E-9BF1-3329FFFD3D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E6BA09-EFDD-4204-A314-8C2F09BBBF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$139</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="157">
   <si>
     <t>ScreenName</t>
   </si>
@@ -502,6 +502,15 @@
   </si>
   <si>
     <t>ProviderOptions</t>
+  </si>
+  <si>
+    <t>RecordAlertAndTasks</t>
+  </si>
+  <si>
+    <t>OrganizationProviderSearch</t>
+  </si>
+  <si>
+    <t>FolioTask</t>
   </si>
 </sst>
 </file>
@@ -869,10 +878,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1622,116 +1631,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1740,88 +1736,84 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>75</v>
+    <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
       </c>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>76</v>
+    </row>
+    <row r="62" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>77</v>
+    </row>
+    <row r="63" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
       </c>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>78</v>
+    </row>
+    <row r="64" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
       </c>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1830,13 +1822,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1845,43 +1837,43 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
       </c>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -1890,58 +1882,58 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
       </c>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="6">
-        <v>1</v>
-      </c>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1950,103 +1942,103 @@
     </row>
     <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="4" t="s">
+      <c r="B80" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D74" s="4">
-        <v>1</v>
-      </c>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1</v>
-      </c>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2055,13 +2047,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2070,13 +2062,13 @@
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2085,13 +2077,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2100,58 +2092,58 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
       </c>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
       </c>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
       </c>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2160,43 +2152,43 @@
     </row>
     <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
       </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
       </c>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2205,13 +2197,13 @@
     </row>
     <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2220,13 +2212,13 @@
     </row>
     <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2235,13 +2227,13 @@
     </row>
     <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2250,13 +2242,13 @@
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2265,13 +2257,13 @@
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2280,13 +2272,13 @@
     </row>
     <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2295,13 +2287,13 @@
     </row>
     <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2310,13 +2302,13 @@
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2325,13 +2317,13 @@
     </row>
     <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2340,13 +2332,13 @@
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2355,13 +2347,13 @@
     </row>
     <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2370,13 +2362,13 @@
     </row>
     <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2385,13 +2377,13 @@
     </row>
     <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2400,13 +2392,13 @@
     </row>
     <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2415,100 +2407,103 @@
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
       </c>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
       </c>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
       </c>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
       </c>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2517,110 +2512,114 @@
     </row>
     <row r="112" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
       </c>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
       </c>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
       </c>
+      <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>153</v>
+        <v>122</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2629,88 +2628,81 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
       </c>
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
       </c>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
       </c>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
       </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D124" s="4">
-        <v>1</v>
-      </c>
-      <c r="E124" s="4"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
@@ -2719,13 +2711,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -2734,13 +2726,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -2749,13 +2741,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -2764,13 +2756,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
@@ -2779,13 +2771,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D130" s="4">
         <v>1</v>
@@ -2794,65 +2786,155 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" s="4">
+        <v>1</v>
+      </c>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132" s="4">
+        <v>1</v>
+      </c>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="4">
+        <v>1</v>
+      </c>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1</v>
+      </c>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="4">
+        <v>1</v>
+      </c>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="4">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D131" s="4">
-        <v>1</v>
-      </c>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="6" t="s">
+      <c r="B137" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" s="4">
+        <v>1</v>
+      </c>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C138" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D132" s="6">
-        <v>1</v>
-      </c>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="6" t="s">
+      <c r="D138" s="6">
+        <v>1</v>
+      </c>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B139" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C139" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D133" s="6">
-        <v>1</v>
-      </c>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
+      <c r="D139" s="6">
+        <v>1</v>
+      </c>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E133" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E139" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3001,6 +3083,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -3010,7 +3101,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3227,16 +3318,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3246,7 +3336,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3263,12 +3353,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\TestData5feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E6BA09-EFDD-4204-A314-8C2F09BBBF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C1340A-A279-41C0-B7E1-6CAAE8CA5ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,7 +881,7 @@
   <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1677,8 +1677,8 @@
       <c r="A55" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>38</v>
+      <c r="B55" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>61</v>
@@ -3083,15 +3083,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -3099,6 +3090,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3319,19 +3319,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\TestData5feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C1340A-A279-41C0-B7E1-6CAAE8CA5ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BC114-D630-4F69-8066-AF6C5DDBEA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$136</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="156">
   <si>
     <t>ScreenName</t>
   </si>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t>OverstayReportSubmission</t>
-  </si>
-  <si>
-    <t>NewCase</t>
   </si>
   <si>
     <t>cares\Case.xlsx</t>
@@ -588,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -596,6 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,10 +876,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1631,103 +1629,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="B55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="D55" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>65</v>
+      <c r="C57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
       </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1736,84 +1747,88 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>155</v>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>69</v>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>70</v>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>71</v>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1822,13 +1837,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1837,43 +1852,43 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
       </c>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -1882,58 +1897,58 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
       </c>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1942,103 +1957,103 @@
     </row>
     <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
       </c>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
       </c>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
       </c>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="6">
-        <v>1</v>
-      </c>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
       </c>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
       </c>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2047,13 +2062,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2062,13 +2077,13 @@
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2077,13 +2092,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2092,58 +2107,58 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
       </c>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
       </c>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
       </c>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2152,43 +2167,43 @@
     </row>
     <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
       </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
       </c>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2197,13 +2212,13 @@
     </row>
     <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2212,13 +2227,13 @@
     </row>
     <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2227,13 +2242,13 @@
     </row>
     <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2242,13 +2257,13 @@
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2257,13 +2272,13 @@
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2272,13 +2287,13 @@
     </row>
     <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2287,13 +2302,13 @@
     </row>
     <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2302,13 +2317,13 @@
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2317,13 +2332,13 @@
     </row>
     <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2332,13 +2347,13 @@
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2347,13 +2362,13 @@
     </row>
     <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2362,13 +2377,13 @@
     </row>
     <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2377,13 +2392,13 @@
     </row>
     <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2392,13 +2407,13 @@
     </row>
     <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2407,103 +2422,100 @@
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
       </c>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
       </c>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
       </c>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
       </c>
-      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
       </c>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
       </c>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2512,197 +2524,200 @@
     </row>
     <row r="112" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
       </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
       </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
       </c>
-      <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
       </c>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="4" t="s">
-        <v>64</v>
+    </row>
+    <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>64</v>
+      <c r="C120" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
       </c>
-      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
-        <v>123</v>
+      <c r="A121" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="D121" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>124</v>
+      <c r="C122" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D124" s="4">
+        <v>1</v>
+      </c>
+      <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="C125" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
@@ -2711,13 +2726,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -2726,13 +2741,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -2741,13 +2756,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -2756,13 +2771,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
@@ -2771,13 +2786,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D130" s="4">
         <v>1</v>
@@ -2786,13 +2801,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D131" s="4">
         <v>1</v>
@@ -2801,13 +2816,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D132" s="4">
         <v>1</v>
@@ -2816,13 +2831,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D133" s="4">
         <v>1</v>
@@ -2831,13 +2846,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D134" s="4">
         <v>1</v>
@@ -2845,96 +2860,51 @@
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D135" s="4">
+      <c r="A135" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" s="6">
         <v>1</v>
       </c>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D136" s="4">
+      <c r="A136" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" s="6">
         <v>1</v>
       </c>
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D137" s="4">
-        <v>1</v>
-      </c>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D138" s="6">
-        <v>1</v>
-      </c>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D139" s="6">
-        <v>1</v>
-      </c>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E139" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E136" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2977,10 +2947,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -2994,13 +2964,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -3011,13 +2981,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -3028,13 +2998,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3045,13 +3015,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -3062,13 +3032,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -3093,15 +3063,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3318,6 +3279,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
@@ -3329,14 +3299,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3353,4 +3315,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BC114-D630-4F69-8066-AF6C5DDBEA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3614C7-C44A-48F7-90F0-85D96F4494B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$137</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="157">
   <si>
     <t>ScreenName</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>FolioTask</t>
+  </si>
+  <si>
+    <t>PlacementStability</t>
   </si>
 </sst>
 </file>
@@ -876,10 +879,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD122"/>
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2679,30 +2682,29 @@
       </c>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="4" t="s">
-        <v>127</v>
+    <row r="123" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
       </c>
-      <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D124" s="4">
         <v>1</v>
@@ -2711,13 +2713,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
@@ -2726,13 +2728,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -2741,13 +2743,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -2756,13 +2758,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -2771,13 +2773,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
@@ -2786,13 +2788,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D130" s="4">
         <v>1</v>
@@ -2801,13 +2803,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D131" s="4">
         <v>1</v>
@@ -2816,13 +2818,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D132" s="4">
         <v>1</v>
@@ -2831,13 +2833,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D133" s="4">
         <v>1</v>
@@ -2846,54 +2848,62 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1</v>
+      </c>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D134" s="4">
-        <v>1</v>
-      </c>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D135" s="6">
+      <c r="D135" s="4">
         <v>1</v>
       </c>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C136" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136" s="6">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D136" s="6">
-        <v>1</v>
-      </c>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1</v>
+      </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -2903,8 +2913,15 @@
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
     </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E136" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E137" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3053,13 +3070,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3280,20 +3296,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3318,9 +3333,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3614C7-C44A-48F7-90F0-85D96F4494B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC8976-A5BB-48AB-A27C-A030596474DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$139</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="170">
   <si>
     <t>ScreenName</t>
   </si>
@@ -222,195 +222,201 @@
     <t>FolioPromoteToCase</t>
   </si>
   <si>
+    <t>LocationServicesOrg</t>
+  </si>
+  <si>
+    <t>CredentialsOrg</t>
+  </si>
+  <si>
+    <t>SpecializationsOrg</t>
+  </si>
+  <si>
+    <t>OrganizationProviderSearch</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Addresses</t>
+  </si>
+  <si>
+    <t>RelatedPersons</t>
+  </si>
+  <si>
+    <t>PersonSearch</t>
+  </si>
+  <si>
+    <t>cares\Person.xlsx</t>
+  </si>
+  <si>
+    <t>PersonContactLogMembers</t>
+  </si>
+  <si>
+    <t>PersonDetails</t>
+  </si>
+  <si>
+    <t>PersonAKA</t>
+  </si>
+  <si>
+    <t>PersonHouseholdMemberships</t>
+  </si>
+  <si>
+    <t>PersonAddresses</t>
+  </si>
+  <si>
+    <t>PersonPhone</t>
+  </si>
+  <si>
+    <t>PersonRelationships</t>
+  </si>
+  <si>
+    <t>PersonTribalInformation</t>
+  </si>
+  <si>
+    <t>ActivePersonAddress</t>
+  </si>
+  <si>
+    <t>InactivePersonAddress</t>
+  </si>
+  <si>
+    <t>PersonBIBackgroundChecks</t>
+  </si>
+  <si>
+    <t>PersonHistory</t>
+  </si>
+  <si>
+    <t>PersonBIROI</t>
+  </si>
+  <si>
+    <t>PersonBIJSI</t>
+  </si>
+  <si>
+    <t>PersonEIEducation</t>
+  </si>
+  <si>
+    <t>PersonHealthInformation</t>
+  </si>
+  <si>
+    <t>PersonBHDiagnosis</t>
+  </si>
+  <si>
+    <t>PersonBehavioralEmotionalNeeds</t>
+  </si>
+  <si>
+    <t>PersonalStrengthsCopingSkills</t>
+  </si>
+  <si>
+    <t>SubstanceDependencyTreatment</t>
+  </si>
+  <si>
+    <t>PersonLegalIssues</t>
+  </si>
+  <si>
+    <t>AlcoholDependencyTreatment</t>
+  </si>
+  <si>
+    <t>AlcoholOrSubstanceUse</t>
+  </si>
+  <si>
+    <t>OtherHealthInsuranceCoverage</t>
+  </si>
+  <si>
+    <t>PersonPrescriptionDrugs</t>
+  </si>
+  <si>
+    <t>PersonAllergies</t>
+  </si>
+  <si>
+    <t>PersonDentalExam</t>
+  </si>
+  <si>
+    <t>HearingImpairmentAndDeafness</t>
+  </si>
+  <si>
+    <t>PersonHospitalizations</t>
+  </si>
+  <si>
+    <t>PersonImmunizations</t>
+  </si>
+  <si>
+    <t>MedicalEquipmentRequiredInformation</t>
+  </si>
+  <si>
+    <t>MedicalEquipmentRequired</t>
+  </si>
+  <si>
+    <t>PersonMedicalExamsInformation</t>
+  </si>
+  <si>
+    <t>PersonMedicationsInformation</t>
+  </si>
+  <si>
+    <t>PersonPregnancy</t>
+  </si>
+  <si>
+    <t>PersonRegionalCenterInformation</t>
+  </si>
+  <si>
+    <t>PersonSpecialDietRequired</t>
+  </si>
+  <si>
+    <t>PersonHIMediCal</t>
+  </si>
+  <si>
+    <t>PersonHIMedicaid</t>
+  </si>
+  <si>
+    <t>PersonMentalHealth</t>
+  </si>
+  <si>
+    <t>PersonOtherHealthInsuranceCoverage</t>
+  </si>
+  <si>
+    <t>PersonPHVisualImpairement</t>
+  </si>
+  <si>
+    <t>PostSecondaryEducationSupport</t>
+  </si>
+  <si>
+    <t>PriorAdoptionAndGuardianship</t>
+  </si>
+  <si>
+    <t>PriorAdoption</t>
+  </si>
+  <si>
+    <t>PriorGuardianship</t>
+  </si>
+  <si>
+    <t>SchoolDisciplinaryIssues</t>
+  </si>
+  <si>
+    <t>PersonRelated</t>
+  </si>
+  <si>
+    <t>PersonSocialHistory</t>
+  </si>
+  <si>
     <t>FolioPlacement</t>
   </si>
   <si>
+    <t>cares\Placement.xlsx</t>
+  </si>
+  <si>
     <t>FolioChildLocations</t>
   </si>
   <si>
     <t>FolioChildLocationAbsences</t>
   </si>
   <si>
+    <t>FolioChildLocationContactLogs</t>
+  </si>
+  <si>
     <t>ChildLocationCorrespondences</t>
   </si>
   <si>
     <t>PlacementPreservationStrategy</t>
   </si>
   <si>
-    <t>LocationServicesOrg</t>
-  </si>
-  <si>
-    <t>CredentialsOrg</t>
-  </si>
-  <si>
-    <t>SpecializationsOrg</t>
-  </si>
-  <si>
-    <t>ProviderSearch</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Addresses</t>
-  </si>
-  <si>
-    <t>RelatedPersons</t>
-  </si>
-  <si>
-    <t>PersonSearch</t>
-  </si>
-  <si>
-    <t>cares\Person.xlsx</t>
-  </si>
-  <si>
-    <t>PersonContactLogMembers</t>
-  </si>
-  <si>
-    <t>PersonDetails</t>
-  </si>
-  <si>
-    <t>PersonAKA</t>
-  </si>
-  <si>
-    <t>PersonHouseholdMemberships</t>
-  </si>
-  <si>
-    <t>PersonAddresses</t>
-  </si>
-  <si>
-    <t>PersonPhone</t>
-  </si>
-  <si>
-    <t>PersonRelationships</t>
-  </si>
-  <si>
-    <t>PersonTribalInformation</t>
-  </si>
-  <si>
-    <t>ActivePersonAddress</t>
-  </si>
-  <si>
-    <t>InactivePersonAddress</t>
-  </si>
-  <si>
-    <t>PersonBIBackgroundChecks</t>
-  </si>
-  <si>
-    <t>PersonHistory</t>
-  </si>
-  <si>
-    <t>PersonBIROI</t>
-  </si>
-  <si>
-    <t>PersonBIJSI</t>
-  </si>
-  <si>
-    <t>PersonEIEducation</t>
-  </si>
-  <si>
-    <t>PersonHealthInformation</t>
-  </si>
-  <si>
-    <t>PersonBHDiagnosis</t>
-  </si>
-  <si>
-    <t>PersonBehavioralEmotionalNeeds</t>
-  </si>
-  <si>
-    <t>PersonalStrengthsCopingSkills</t>
-  </si>
-  <si>
-    <t>SubstanceDependencyTreatment</t>
-  </si>
-  <si>
-    <t>PersonLegalIssues</t>
-  </si>
-  <si>
-    <t>AlcoholDependencyTreatment</t>
-  </si>
-  <si>
-    <t>AlcoholOrSubstanceUse</t>
-  </si>
-  <si>
-    <t>OtherHealthInsuranceCoverage</t>
-  </si>
-  <si>
-    <t>PersonPrescriptionDrugs</t>
-  </si>
-  <si>
-    <t>PersonAllergies</t>
-  </si>
-  <si>
-    <t>PersonDentalExam</t>
-  </si>
-  <si>
-    <t>HearingImpairmentAndDeafness</t>
-  </si>
-  <si>
-    <t>PersonHospitalizations</t>
-  </si>
-  <si>
-    <t>PersonImmunizations</t>
-  </si>
-  <si>
-    <t>MedicalEquipmentRequiredInformation</t>
-  </si>
-  <si>
-    <t>MedicalEquipmentRequired</t>
-  </si>
-  <si>
-    <t>PersonMedicalExamsInformation</t>
-  </si>
-  <si>
-    <t>PersonMedicationsInformation</t>
-  </si>
-  <si>
-    <t>PersonPregnancy</t>
-  </si>
-  <si>
-    <t>PersonRegionalCenterInformation</t>
-  </si>
-  <si>
-    <t>PersonSpecialDietRequired</t>
-  </si>
-  <si>
-    <t>PersonHIMediCal</t>
-  </si>
-  <si>
-    <t>PersonHIMedicaid</t>
-  </si>
-  <si>
-    <t>PersonMentalHealth</t>
-  </si>
-  <si>
-    <t>PersonOtherHealthInsuranceCoverage</t>
-  </si>
-  <si>
-    <t>PersonPHVisualImpairement</t>
-  </si>
-  <si>
-    <t>PostSecondaryEducationSupport</t>
-  </si>
-  <si>
-    <t>PriorAdoptionAndGuardianship</t>
-  </si>
-  <si>
-    <t>PriorAdoption</t>
-  </si>
-  <si>
-    <t>PriorGuardianship</t>
-  </si>
-  <si>
-    <t>SchoolDisciplinaryIssues</t>
-  </si>
-  <si>
-    <t>cares\Placement.xlsx</t>
-  </si>
-  <si>
-    <t>FolioChildLocationContactLogs</t>
-  </si>
-  <si>
     <t>Removal</t>
   </si>
   <si>
@@ -420,12 +426,30 @@
     <t>OverstayReportSubmission</t>
   </si>
   <si>
+    <t>FolioProviderSearch</t>
+  </si>
+  <si>
+    <t>ProviderOptions</t>
+  </si>
+  <si>
+    <t>RecordAlertAndTasks</t>
+  </si>
+  <si>
+    <t>FolioTask</t>
+  </si>
+  <si>
+    <t>ProviderOptionsDocuments</t>
+  </si>
+  <si>
+    <t>FolioChildLocationOverstayRepo</t>
+  </si>
+  <si>
+    <t>CaseAssignments</t>
+  </si>
+  <si>
     <t>cares\Case.xlsx</t>
   </si>
   <si>
-    <t>CaseAssignments</t>
-  </si>
-  <si>
     <t>CaseChangeAssignments</t>
   </si>
   <si>
@@ -468,6 +492,39 @@
     <t>CaseTribalInquiry</t>
   </si>
   <si>
+    <t>NewCase</t>
+  </si>
+  <si>
+    <t>EligibilityDetails</t>
+  </si>
+  <si>
+    <t>ChildSupportEligibilityInfo</t>
+  </si>
+  <si>
+    <t>MediCalEligibilityRequestInfo</t>
+  </si>
+  <si>
+    <t>EligibilityDocuments</t>
+  </si>
+  <si>
+    <t>EligibilityHomeOfRemoval</t>
+  </si>
+  <si>
+    <t>FosterCareEligibilityInfo</t>
+  </si>
+  <si>
+    <t>EligibilityTask</t>
+  </si>
+  <si>
+    <t>EligibilityAssignments</t>
+  </si>
+  <si>
+    <t>ChildIncomeAndProperty</t>
+  </si>
+  <si>
+    <t>EligibilityGenerateDocument</t>
+  </si>
+  <si>
     <t>InitialScreening</t>
   </si>
   <si>
@@ -490,24 +547,6 @@
   </si>
   <si>
     <t>SauceConfirmation</t>
-  </si>
-  <si>
-    <t>PersonRelated</t>
-  </si>
-  <si>
-    <t>PersonSocialHistory</t>
-  </si>
-  <si>
-    <t>ProviderOptions</t>
-  </si>
-  <si>
-    <t>RecordAlertAndTasks</t>
-  </si>
-  <si>
-    <t>OrganizationProviderSearch</t>
-  </si>
-  <si>
-    <t>FolioTask</t>
   </si>
   <si>
     <t>PlacementStability</t>
@@ -879,10 +918,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1634,13 +1673,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1649,13 +1688,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1664,13 +1703,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1679,13 +1718,13 @@
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1693,13 +1732,13 @@
     </row>
     <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1707,13 +1746,13 @@
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -1721,13 +1760,13 @@
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1735,13 +1774,13 @@
     </row>
     <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1750,13 +1789,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1765,13 +1804,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1780,13 +1819,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1795,13 +1834,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1810,13 +1849,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -1825,13 +1864,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1840,13 +1879,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1855,13 +1894,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -1870,13 +1909,13 @@
     </row>
     <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -1885,13 +1924,13 @@
     </row>
     <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -1900,13 +1939,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -1915,13 +1954,13 @@
     </row>
     <row r="71" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -1930,13 +1969,13 @@
     </row>
     <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -1945,13 +1984,13 @@
     </row>
     <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1960,13 +1999,13 @@
     </row>
     <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -1975,13 +2014,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -1990,13 +2029,13 @@
     </row>
     <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2005,13 +2044,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2020,13 +2059,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2035,13 +2074,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2050,13 +2089,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2065,13 +2104,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2080,13 +2119,13 @@
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2095,13 +2134,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2110,13 +2149,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2125,13 +2164,13 @@
     </row>
     <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2140,13 +2179,13 @@
     </row>
     <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2155,13 +2194,13 @@
     </row>
     <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2170,13 +2209,13 @@
     </row>
     <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2185,13 +2224,13 @@
     </row>
     <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2200,13 +2239,13 @@
     </row>
     <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2215,13 +2254,13 @@
     </row>
     <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2230,13 +2269,13 @@
     </row>
     <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2245,13 +2284,13 @@
     </row>
     <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2260,13 +2299,13 @@
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2275,13 +2314,13 @@
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2290,13 +2329,13 @@
     </row>
     <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2305,13 +2344,13 @@
     </row>
     <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2320,13 +2359,13 @@
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2335,13 +2374,13 @@
     </row>
     <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2350,13 +2389,13 @@
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2365,13 +2404,13 @@
     </row>
     <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2380,13 +2419,13 @@
     </row>
     <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2395,13 +2434,13 @@
     </row>
     <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2410,13 +2449,13 @@
     </row>
     <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2425,13 +2464,13 @@
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2440,13 +2479,13 @@
     </row>
     <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2454,13 +2493,13 @@
     </row>
     <row r="107" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -2468,13 +2507,13 @@
     </row>
     <row r="108" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -2482,13 +2521,13 @@
     </row>
     <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2497,13 +2536,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2512,13 +2551,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2530,7 +2569,7 @@
         <v>122</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>122</v>
@@ -2541,13 +2580,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2556,13 +2595,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2571,13 +2610,13 @@
     </row>
     <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -2585,13 +2624,13 @@
     </row>
     <row r="116" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2599,13 +2638,13 @@
     </row>
     <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -2613,13 +2652,13 @@
     </row>
     <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2627,13 +2666,13 @@
     </row>
     <row r="119" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2641,13 +2680,13 @@
     </row>
     <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2655,13 +2694,13 @@
     </row>
     <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2669,13 +2708,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -2684,57 +2723,55 @@
     </row>
     <row r="123" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="4" t="s">
-        <v>127</v>
+    <row r="124" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D124" s="4">
         <v>1</v>
       </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="4" t="s">
-        <v>128</v>
+    </row>
+    <row r="125" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
       </c>
-      <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -2743,13 +2780,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -2758,13 +2795,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -2773,13 +2810,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
@@ -2788,13 +2825,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D130" s="4">
         <v>1</v>
@@ -2803,13 +2840,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D131" s="4">
         <v>1</v>
@@ -2818,13 +2855,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="C132" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D132" s="4">
         <v>1</v>
@@ -2833,13 +2870,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D133" s="4">
         <v>1</v>
@@ -2848,13 +2885,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D134" s="4">
         <v>1</v>
@@ -2863,13 +2900,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D135" s="4">
         <v>1</v>
@@ -2877,51 +2914,239 @@
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D136" s="6">
+      <c r="A136" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" s="4">
         <v>1</v>
       </c>
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D137" s="6">
+      <c r="A137" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D137" s="4">
         <v>1</v>
       </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="A138" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D138" s="6">
+        <v>1</v>
+      </c>
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="A139" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="6">
+        <v>1</v>
+      </c>
       <c r="E139" s="4"/>
     </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D140" s="5">
+        <v>1</v>
+      </c>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1</v>
+      </c>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1</v>
+      </c>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1</v>
+      </c>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1</v>
+      </c>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1</v>
+      </c>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1</v>
+      </c>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1</v>
+      </c>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1</v>
+      </c>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1</v>
+      </c>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E137" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E139" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2964,10 +3189,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -2981,13 +3206,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2998,13 +3223,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -3015,13 +3240,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3032,13 +3257,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -3049,13 +3274,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -3070,6 +3295,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3078,7 +3313,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3295,17 +3530,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3313,7 +3548,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3330,14 +3565,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC8976-A5BB-48AB-A27C-A030596474DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8011A562-ECA8-4172-BFD1-70170E5AA54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$138</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -918,10 +918,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2749,29 +2749,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="7" t="s">
-        <v>169</v>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>169</v>
+        <v>135</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
       </c>
+      <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -2780,13 +2781,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -2795,13 +2796,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -2810,13 +2811,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
@@ -2825,13 +2826,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D130" s="4">
         <v>1</v>
@@ -2840,13 +2841,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D131" s="4">
         <v>1</v>
@@ -2855,13 +2856,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D132" s="4">
         <v>1</v>
@@ -2870,13 +2871,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D133" s="4">
         <v>1</v>
@@ -2885,13 +2886,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D134" s="4">
         <v>1</v>
@@ -2900,13 +2901,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D135" s="4">
         <v>1</v>
@@ -2915,13 +2916,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D136" s="4">
         <v>1</v>
@@ -2929,29 +2930,29 @@
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B137" s="4" t="s">
+      <c r="A137" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D137" s="4">
+      <c r="C137" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" s="6">
         <v>1</v>
       </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D138" s="6">
         <v>1</v>
@@ -2959,44 +2960,44 @@
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B139" s="6" t="s">
+      <c r="A139" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D139" s="6">
+      <c r="C139" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D139" s="5">
         <v>1</v>
       </c>
       <c r="E139" s="4"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D140" s="5">
+      <c r="A140" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140" s="4">
         <v>1</v>
       </c>
       <c r="E140" s="4"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D141" s="4">
         <v>1</v>
@@ -3005,13 +3006,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D142" s="4">
         <v>1</v>
@@ -3020,13 +3021,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D143" s="4">
         <v>1</v>
@@ -3035,13 +3036,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D144" s="4">
         <v>1</v>
@@ -3050,13 +3051,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D145" s="4">
         <v>1</v>
@@ -3065,13 +3066,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D146" s="4">
         <v>1</v>
@@ -3080,13 +3081,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D147" s="4">
         <v>1</v>
@@ -3095,13 +3096,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
@@ -3110,13 +3111,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
@@ -3125,28 +3126,21 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
       </c>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E139" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E138" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3295,25 +3289,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3530,25 +3505,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3565,4 +3541,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEDF4B79-E422-4EFB-A2DF-BDC4E551FB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4BA5FE-E7A3-4B73-AB40-41CAFD396CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
   <si>
     <t>ScreenName</t>
   </si>
@@ -962,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1723,13 +1723,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1737,27 +1737,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C56" t="s">
-        <v>63</v>
+      <c r="C56" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1765,13 +1765,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1793,27 +1793,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>67</v>
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1821,13 +1821,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1835,13 +1835,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1863,13 +1863,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1947,13 +1947,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1961,56 +1961,56 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
+      <c r="A72" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1</v>
-      </c>
-      <c r="E73" s="4"/>
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
         <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2018,13 +2018,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
         <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
         <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
         <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
         <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
         <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
         <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
         <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2116,13 +2116,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
         <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
         <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2144,13 +2144,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
         <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2158,13 +2158,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
         <v>69</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
         <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
         <v>69</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
         <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2214,13 +2214,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
         <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
         <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2242,13 +2242,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
         <v>69</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
         <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
         <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
         <v>69</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
         <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -2312,13 +2312,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
         <v>69</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
         <v>69</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2340,13 +2340,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
         <v>69</v>
       </c>
       <c r="C98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2354,13 +2354,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
         <v>69</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
         <v>69</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2382,13 +2382,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B101" t="s">
         <v>69</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2396,13 +2396,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
         <v>69</v>
       </c>
       <c r="C102" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2410,13 +2410,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s">
         <v>69</v>
       </c>
       <c r="C103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2424,13 +2424,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
         <v>69</v>
       </c>
       <c r="C104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B105" t="s">
         <v>69</v>
       </c>
       <c r="C105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
         <v>69</v>
       </c>
       <c r="C106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
         <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2480,13 +2480,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
         <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -2494,13 +2494,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B109" t="s">
         <v>69</v>
       </c>
       <c r="C109" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" t="s">
         <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -2536,13 +2536,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B112" t="s">
         <v>120</v>
       </c>
       <c r="C112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -2550,13 +2550,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B113" t="s">
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2564,13 +2564,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
         <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -2578,13 +2578,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B115" t="s">
         <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B117" t="s">
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2620,13 +2620,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s">
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2634,13 +2634,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -2648,27 +2648,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>130</v>
+      <c r="A121" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B121" t="s">
         <v>120</v>
       </c>
-      <c r="C121" t="s">
-        <v>130</v>
+      <c r="C121" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2676,13 +2676,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2690,13 +2690,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
         <v>120</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2704,13 +2704,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
         <v>120</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2718,27 +2718,27 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B125" t="s">
         <v>120</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>134</v>
+      <c r="A126" t="s">
+        <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="C126" t="s">
+        <v>135</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2746,13 +2746,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
         <v>136</v>
       </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2760,13 +2760,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
         <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -2774,13 +2774,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
         <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2788,13 +2788,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B130" t="s">
         <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2802,13 +2802,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B131" t="s">
         <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2816,13 +2816,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B132" t="s">
         <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2830,13 +2830,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B133" t="s">
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -2858,13 +2858,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="B135" t="s">
         <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -2872,13 +2872,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B136" t="s">
         <v>144</v>
       </c>
       <c r="C136" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -2886,103 +2886,103 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B137" t="s">
         <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>147</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="A138" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C138" t="s">
-        <v>147</v>
-      </c>
-      <c r="D138">
+      <c r="C138" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D138" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D139" s="4">
-        <v>1</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D143" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D144" s="4">
         <v>1</v>
@@ -2990,13 +2990,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D145" s="4">
         <v>1</v>
@@ -3004,13 +3004,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D146" s="4">
         <v>1</v>
@@ -3018,27 +3018,28 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D147" s="4">
         <v>1</v>
       </c>
+      <c r="E147" s="4"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
@@ -3047,13 +3048,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
@@ -3062,13 +3063,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
@@ -3077,13 +3078,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
@@ -3092,13 +3093,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
@@ -3107,13 +3108,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
@@ -3122,13 +3123,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
@@ -3137,13 +3138,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
@@ -3152,13 +3153,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -3167,13 +3168,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -3182,13 +3183,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D158" s="4">
         <v>1</v>
@@ -3197,13 +3198,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D159" s="4">
         <v>1</v>
@@ -3212,42 +3213,41 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D160" s="4">
         <v>1</v>
       </c>
-      <c r="E160" s="4"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B161" s="4" t="s">
+      <c r="A161" t="s">
+        <v>171</v>
+      </c>
+      <c r="B161" t="s">
         <v>120</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D161" s="4">
+      <c r="C161" t="s">
+        <v>171</v>
+      </c>
+      <c r="D161">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B162" t="s">
         <v>120</v>
       </c>
       <c r="C162" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -3255,13 +3255,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B163" t="s">
         <v>120</v>
       </c>
       <c r="C163" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -3269,13 +3269,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B164" t="s">
         <v>120</v>
       </c>
       <c r="C164" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -3283,13 +3283,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B165" t="s">
         <v>120</v>
       </c>
       <c r="C165" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -3297,29 +3297,15 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B166" t="s">
         <v>120</v>
       </c>
       <c r="C166" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>176</v>
-      </c>
-      <c r="B167" t="s">
-        <v>120</v>
-      </c>
-      <c r="C167" t="s">
-        <v>176</v>
-      </c>
-      <c r="D167">
         <v>1</v>
       </c>
     </row>
@@ -3329,6 +3315,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB6316A5099234ABAF38307C2E58DEB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87316ca0d647f3b1225f36e289a3d896">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60f4fc0e-4376-443b-9113-f11ee5b2b38a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7efb5893f41ea89f12dc9c111325a490" ns3:_="">
     <xsd:import namespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
@@ -3508,24 +3511,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A09924-B590-4720-9BBE-6380EA058C35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3543,30 +3553,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" removed="0"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4BA5FE-E7A3-4B73-AB40-41CAFD396CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94CDAF-841E-4657-ADD6-54C0DE1CE286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="178">
   <si>
     <t>ScreenName</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>SubmitToCalSAWS</t>
+  </si>
+  <si>
+    <t>AmendPetition</t>
   </si>
 </sst>
 </file>
@@ -962,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3306,6 +3309,20 @@
         <v>176</v>
       </c>
       <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>177</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C167" t="s">
+        <v>177</v>
+      </c>
+      <c r="D167">
         <v>1</v>
       </c>
     </row>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94CDAF-841E-4657-ADD6-54C0DE1CE286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4328A3EF-F38A-4C8D-91B1-78D34E5ED770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -968,7 +968,7 @@
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3328,6 +3328,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata21feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4328A3EF-F38A-4C8D-91B1-78D34E5ED770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE3D8F9-8AFF-4546-8F54-535AA9EB8464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="181">
   <si>
     <t>ScreenName</t>
   </si>
@@ -569,7 +569,16 @@
     <t>SubmitToCalSAWS</t>
   </si>
   <si>
+    <t>CourtMinuteOrders</t>
+  </si>
+  <si>
+    <t>CourtGenerateDocument</t>
+  </si>
+  <si>
     <t>AmendPetition</t>
+  </si>
+  <si>
+    <t>CourtsApprovalAndAuditHistory</t>
   </si>
 </sst>
 </file>
@@ -604,7 +613,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +623,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,12 +666,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,13 +988,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1712,13 +1742,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1726,13 +1756,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1740,27 +1770,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
         <v>36</v>
       </c>
       <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>64</v>
+      <c r="C56" t="s">
+        <v>63</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1768,13 +1798,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1782,13 +1812,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1796,27 +1826,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" t="s">
-        <v>68</v>
+      <c r="B60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1824,13 +1854,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1838,13 +1868,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1852,13 +1882,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1866,13 +1896,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1880,13 +1910,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1894,13 +1924,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1908,13 +1938,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1922,13 +1952,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1936,13 +1966,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1950,13 +1980,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1964,56 +1994,56 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="B71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
         <v>80</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="B73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="4">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
         <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2021,13 +2051,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
         <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2035,13 +2065,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
         <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2049,13 +2079,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
         <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2063,13 +2093,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
         <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2077,13 +2107,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
         <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2091,13 +2121,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
         <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2105,13 +2135,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
         <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2119,13 +2149,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
         <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2133,13 +2163,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
         <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2147,13 +2177,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
         <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2161,13 +2191,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
         <v>69</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2175,13 +2205,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" t="s">
         <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2189,13 +2219,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
         <v>69</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2203,13 +2233,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
         <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2217,13 +2247,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
         <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2231,13 +2261,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
         <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2245,13 +2275,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
         <v>69</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2259,13 +2289,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
         <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2273,13 +2303,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2287,13 +2317,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
         <v>69</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -2301,13 +2331,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
         <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -2315,13 +2345,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s">
         <v>69</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -2329,13 +2359,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
         <v>69</v>
       </c>
       <c r="C97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2343,13 +2373,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
         <v>69</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2357,13 +2387,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
         <v>69</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2371,13 +2401,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100" t="s">
         <v>69</v>
       </c>
       <c r="C100" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2385,13 +2415,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
         <v>69</v>
       </c>
       <c r="C101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2399,13 +2429,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B102" t="s">
         <v>69</v>
       </c>
       <c r="C102" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2413,13 +2443,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
         <v>69</v>
       </c>
       <c r="C103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2427,13 +2457,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
         <v>69</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -2441,13 +2471,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
         <v>69</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2455,13 +2485,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B106" t="s">
         <v>69</v>
       </c>
       <c r="C106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2469,13 +2499,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
         <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2483,13 +2513,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
         <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -2497,13 +2527,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
         <v>69</v>
       </c>
       <c r="C109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -2511,13 +2541,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -2525,13 +2555,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
         <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -2539,13 +2569,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B112" t="s">
         <v>120</v>
       </c>
       <c r="C112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -2553,13 +2583,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2567,13 +2597,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114" t="s">
         <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -2581,13 +2611,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B115" t="s">
         <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -2595,13 +2625,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B116" t="s">
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -2609,13 +2639,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B117" t="s">
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2623,13 +2653,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B118" t="s">
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2637,13 +2667,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -2651,27 +2681,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
       </c>
       <c r="C120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>130</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="B121" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>131</v>
+      <c r="C121" t="s">
+        <v>130</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2679,13 +2709,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2693,13 +2723,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s">
         <v>120</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2707,13 +2737,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
         <v>120</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2721,27 +2751,27 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
         <v>120</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>135</v>
-      </c>
       <c r="B126" t="s">
-        <v>136</v>
-      </c>
-      <c r="C126" t="s">
-        <v>135</v>
+        <v>120</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2749,13 +2779,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
         <v>136</v>
       </c>
       <c r="C127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2763,13 +2793,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B128" t="s">
         <v>136</v>
       </c>
       <c r="C128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -2777,13 +2807,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B129" t="s">
         <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2791,13 +2821,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B130" t="s">
         <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2805,13 +2835,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B131" t="s">
         <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2819,13 +2849,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B132" t="s">
         <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2833,13 +2863,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B133" t="s">
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2847,13 +2877,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="B134" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -2861,13 +2891,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B135" t="s">
         <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -2875,219 +2905,215 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B136" t="s">
         <v>144</v>
       </c>
       <c r="C136" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>146</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" t="s">
+        <v>146</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>147</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B141" t="s">
         <v>144</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C141" t="s">
         <v>147</v>
       </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D138" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D141" s="4"/>
+      <c r="D141">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D142" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D143" s="4">
-        <v>1</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D143" s="4"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D144" s="4">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D145" s="4">
-        <v>1</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D145" s="4"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D146" s="4">
-        <v>1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D147" s="4">
         <v>1</v>
       </c>
-      <c r="E147" s="4"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
       </c>
-      <c r="E148" s="4"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
       </c>
-      <c r="E149" s="4"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
       </c>
-      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
@@ -3096,13 +3122,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
@@ -3111,13 +3137,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
@@ -3126,13 +3152,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
@@ -3141,13 +3167,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
@@ -3156,13 +3182,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -3171,13 +3197,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -3186,13 +3212,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D158" s="4">
         <v>1</v>
@@ -3201,13 +3227,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D159" s="4">
         <v>1</v>
@@ -3216,159 +3242,190 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D160" s="4">
+        <v>1</v>
+      </c>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1</v>
+      </c>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" s="4">
+        <v>1</v>
+      </c>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1</v>
+      </c>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D160" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="B164" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D164" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>171</v>
-      </c>
-      <c r="B161" t="s">
-        <v>120</v>
-      </c>
-      <c r="C161" t="s">
-        <v>171</v>
-      </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>172</v>
-      </c>
-      <c r="B162" t="s">
-        <v>120</v>
-      </c>
-      <c r="C162" t="s">
-        <v>172</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>173</v>
-      </c>
-      <c r="B163" t="s">
-        <v>120</v>
-      </c>
-      <c r="C163" t="s">
-        <v>173</v>
-      </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>174</v>
-      </c>
-      <c r="B164" t="s">
-        <v>120</v>
-      </c>
-      <c r="C164" t="s">
-        <v>174</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>175</v>
       </c>
       <c r="B165" t="s">
         <v>120</v>
       </c>
       <c r="C165" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
         <v>120</v>
       </c>
       <c r="C166" t="s">
+        <v>172</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167" t="s">
+        <v>173</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" t="s">
+        <v>174</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" t="s">
+        <v>120</v>
+      </c>
+      <c r="C169" t="s">
+        <v>175</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>176</v>
       </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>177</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C167" t="s">
-        <v>177</v>
-      </c>
-      <c r="D167">
+      <c r="B170" t="s">
+        <v>120</v>
+      </c>
+      <c r="C170" t="s">
+        <v>176</v>
+      </c>
+      <c r="D170">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="60f4fc0e-4376-443b-9113-f11ee5b2b38a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAB6316A5099234ABAF38307C2E58DEB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87316ca0d647f3b1225f36e289a3d896">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60f4fc0e-4376-443b-9113-f11ee5b2b38a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7efb5893f41ea89f12dc9c111325a490" ns3:_="">
-    <xsd:import namespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
+    <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
+    <xsd:import namespace="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3376,57 +3433,91 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="60f4fc0e-4376-443b-9113-f11ee5b2b38a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="49c1c420-9681-49d8-b218-968a87430846" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5bce90d6-5a2c-47e0-8337-aac7acda0e97" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="14" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eb87e36b-823b-4123-a7f7-e23d77fa1380" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3529,7 +3620,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3541,32 +3670,15 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A09924-B590-4720-9BBE-6380EA058C35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata22feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata25feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE3D8F9-8AFF-4546-8F54-535AA9EB8464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA22DD3-FB1A-48DA-8196-166C6C652990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="190">
   <si>
     <t>ScreenName</t>
   </si>
@@ -431,9 +431,6 @@
     <t>ProviderOptions</t>
   </si>
   <si>
-    <t>RecordAlertAndTasks</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -576,6 +573,36 @@
   </si>
   <si>
     <t>AmendPetition</t>
+  </si>
+  <si>
+    <t>Related</t>
+  </si>
+  <si>
+    <t>RecordAlertsAndTasks</t>
+  </si>
+  <si>
+    <t>CourtOfficerNotes</t>
+  </si>
+  <si>
+    <t>TribalPlacementPreferences</t>
+  </si>
+  <si>
+    <t>ParentGuardPlacementPreferences</t>
+  </si>
+  <si>
+    <t>YouthPlacementPreferences</t>
+  </si>
+  <si>
+    <t>PlacementNeeds</t>
+  </si>
+  <si>
+    <t>DocumentDistributions</t>
+  </si>
+  <si>
+    <t>CourtReports</t>
+  </si>
+  <si>
+    <t>ReleasesOfInformationAndConsent</t>
   </si>
   <si>
     <t>CourtsApprovalAndAuditHistory</t>
@@ -613,7 +640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,12 +656,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +694,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,17 +1009,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2709,13 +2730,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2723,13 +2744,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
         <v>120</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2751,13 +2772,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
         <v>120</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -2765,13 +2786,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
         <v>120</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2779,13 +2800,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="B127" t="s">
-        <v>136</v>
-      </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2793,13 +2814,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" t="s">
         <v>136</v>
-      </c>
-      <c r="C128" t="s">
-        <v>137</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -2807,13 +2828,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2821,13 +2842,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2835,13 +2856,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2849,13 +2870,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2863,13 +2884,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2877,13 +2898,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -2891,13 +2912,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -2905,159 +2926,167 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" t="s">
         <v>144</v>
       </c>
-      <c r="C136" t="s">
-        <v>145</v>
-      </c>
       <c r="D136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D137" s="6">
+      <c r="A137" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D137" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D138" s="6">
+      <c r="A138" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D139" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="A140" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D140" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D141" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>146</v>
       </c>
-      <c r="B140" t="s">
-        <v>144</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
         <v>146</v>
       </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>147</v>
-      </c>
-      <c r="B141" t="s">
-        <v>144</v>
-      </c>
-      <c r="C141" t="s">
-        <v>147</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D142" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D143" s="4"/>
+      <c r="D143">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D144" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D145" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D146" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D147" s="4">
         <v>1</v>
@@ -3065,130 +3094,125 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>157</v>
+    <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
       </c>
-      <c r="E151" s="4"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
       </c>
-      <c r="E152" s="4"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
       </c>
-      <c r="E153" s="4"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
       </c>
-      <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
       </c>
-      <c r="E155" s="4"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -3197,13 +3221,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -3212,13 +3236,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D158" s="4">
         <v>1</v>
@@ -3227,13 +3251,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D159" s="4">
         <v>1</v>
@@ -3242,13 +3266,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D160" s="4">
         <v>1</v>
@@ -3257,13 +3281,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D161" s="4">
         <v>1</v>
@@ -3272,13 +3296,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D162" s="4">
         <v>1</v>
@@ -3287,13 +3311,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D163" s="4">
         <v>1</v>
@@ -3302,101 +3326,236 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D164" s="4">
         <v>1</v>
       </c>
+      <c r="E164" s="4"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>171</v>
-      </c>
-      <c r="B165" t="s">
-        <v>120</v>
-      </c>
-      <c r="C165" t="s">
-        <v>171</v>
-      </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
+      <c r="A165" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1</v>
+      </c>
+      <c r="E165" s="4"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>172</v>
-      </c>
-      <c r="B166" t="s">
-        <v>120</v>
-      </c>
-      <c r="C166" t="s">
-        <v>172</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
+      <c r="A166" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1</v>
+      </c>
+      <c r="E166" s="4"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>173</v>
-      </c>
-      <c r="B167" t="s">
-        <v>120</v>
-      </c>
-      <c r="C167" t="s">
-        <v>173</v>
-      </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
+      <c r="A167" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1</v>
+      </c>
+      <c r="E167" s="4"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>174</v>
-      </c>
-      <c r="B168" t="s">
-        <v>120</v>
-      </c>
-      <c r="C168" t="s">
-        <v>174</v>
-      </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
+      <c r="A168" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D168" s="4">
+        <v>1</v>
+      </c>
+      <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>175</v>
-      </c>
-      <c r="B169" t="s">
-        <v>120</v>
-      </c>
-      <c r="C169" t="s">
-        <v>175</v>
-      </c>
-      <c r="D169">
+      <c r="A169" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D169" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
         <v>120</v>
       </c>
       <c r="C170" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171" t="s">
+        <v>171</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>120</v>
+      </c>
+      <c r="C172" t="s">
+        <v>172</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>120</v>
+      </c>
+      <c r="C173" t="s">
+        <v>173</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>120</v>
+      </c>
+      <c r="C174" t="s">
+        <v>174</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175" t="s">
+        <v>175</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D176" s="6">
+        <v>1</v>
+      </c>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D177" s="6">
+        <v>1</v>
+      </c>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D178" s="6">
+        <v>1</v>
+      </c>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D179" s="6">
+        <v>1</v>
+      </c>
+      <c r="E179" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3404,6 +3563,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3620,26 +3798,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3658,31 +3842,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" removed="0"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata25feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata26feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA22DD3-FB1A-48DA-8196-166C6C652990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA86EEF0-8C20-43A0-B496-9AF7F5285D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataMappingSheet_SD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="188">
   <si>
     <t>ScreenName</t>
   </si>
@@ -431,6 +431,9 @@
     <t>ProviderOptions</t>
   </si>
   <si>
+    <t>RecordAlertsAndTasks</t>
+  </si>
+  <si>
     <t>Task</t>
   </si>
   <si>
@@ -467,12 +470,27 @@
     <t>CaseReferralPersons</t>
   </si>
   <si>
+    <t>CourtGenerateDocument</t>
+  </si>
+  <si>
     <t>cares\Courts.xlsx</t>
   </si>
   <si>
     <t>Petition</t>
   </si>
   <si>
+    <t>CourtMinuteOrders</t>
+  </si>
+  <si>
+    <t>AmendPetition</t>
+  </si>
+  <si>
+    <t>Related</t>
+  </si>
+  <si>
+    <t>CourtOfficerNotes</t>
+  </si>
+  <si>
     <t>Participants</t>
   </si>
   <si>
@@ -566,24 +584,6 @@
     <t>SubmitToCalSAWS</t>
   </si>
   <si>
-    <t>CourtMinuteOrders</t>
-  </si>
-  <si>
-    <t>CourtGenerateDocument</t>
-  </si>
-  <si>
-    <t>AmendPetition</t>
-  </si>
-  <si>
-    <t>Related</t>
-  </si>
-  <si>
-    <t>RecordAlertsAndTasks</t>
-  </si>
-  <si>
-    <t>CourtOfficerNotes</t>
-  </si>
-  <si>
     <t>TribalPlacementPreferences</t>
   </si>
   <si>
@@ -594,12 +594,6 @@
   </si>
   <si>
     <t>PlacementNeeds</t>
-  </si>
-  <si>
-    <t>DocumentDistributions</t>
-  </si>
-  <si>
-    <t>CourtReports</t>
   </si>
   <si>
     <t>ReleasesOfInformationAndConsent</t>
@@ -1009,19 +1003,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:E141"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1042,694 +1036,707 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1762,58 +1769,58 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1827,7 +1834,7 @@
       <c r="C57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1841,7 +1848,7 @@
       <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1855,7 +1862,7 @@
       <c r="C59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1869,177 +1876,185 @@
       <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
+      <c r="D72" s="6">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
@@ -2057,702 +2072,709 @@
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
+      <c r="D74" s="6">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B78" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
+      <c r="D78" s="6">
+        <v>1</v>
+      </c>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B80" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B82" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B85" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B87" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="A90" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B90" t="s">
-        <v>69</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="A91" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B91" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B92" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B92" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B93" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B93" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="A94" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B94" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B94" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B95" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B95" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B96" t="s">
-        <v>69</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B96" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B97" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B97" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="A98" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B98" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B99" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B100" t="s">
-        <v>69</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B101" t="s">
-        <v>69</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B101" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B102" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B102" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B103" t="s">
-        <v>69</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="A104" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B104" t="s">
-        <v>69</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B105" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="A106" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B106" t="s">
-        <v>69</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="A107" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="A108" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B108" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B108" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="A109" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B109" t="s">
-        <v>69</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B109" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="A110" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B110" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B110" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="A111" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B111" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B111" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="A112" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B112" t="s">
-        <v>120</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B112" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="A113" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B113" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B113" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="A114" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B114" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B114" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="A115" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B115" t="s">
-        <v>120</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B115" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="A116" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B116" t="s">
-        <v>120</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B116" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="A117" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B117" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B117" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="A118" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B118" t="s">
-        <v>120</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B118" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="A119" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B119" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B119" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="A120" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B120" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B120" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="A121" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B121" t="s">
-        <v>120</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B121" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D122">
+        <v>131</v>
+      </c>
+      <c r="D122" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D123">
+        <v>132</v>
+      </c>
+      <c r="D123" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2760,193 +2782,193 @@
       <c r="A124" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125">
+        <v>133</v>
+      </c>
+      <c r="D125" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D126">
+        <v>134</v>
+      </c>
+      <c r="D126" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="A127" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C127" t="s">
-        <v>134</v>
-      </c>
-      <c r="D127">
+      <c r="B127" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="A128" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B128" t="s">
-        <v>135</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="C128" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D128" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>137</v>
-      </c>
-      <c r="B129" t="s">
-        <v>135</v>
-      </c>
-      <c r="C129" t="s">
-        <v>137</v>
-      </c>
-      <c r="D129">
+      <c r="C129" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>138</v>
-      </c>
-      <c r="B130" t="s">
-        <v>135</v>
-      </c>
-      <c r="C130" t="s">
-        <v>138</v>
-      </c>
-      <c r="D130">
+      <c r="A130" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D130" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>139</v>
-      </c>
-      <c r="B131" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" t="s">
-        <v>139</v>
-      </c>
-      <c r="D131">
+      <c r="A131" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>140</v>
-      </c>
-      <c r="B132" t="s">
-        <v>135</v>
-      </c>
-      <c r="C132" t="s">
-        <v>140</v>
-      </c>
-      <c r="D132">
+      <c r="A132" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>141</v>
-      </c>
-      <c r="B133" t="s">
-        <v>135</v>
-      </c>
-      <c r="C133" t="s">
-        <v>141</v>
-      </c>
-      <c r="D133">
+      <c r="A133" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D133" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>142</v>
-      </c>
-      <c r="B134" t="s">
-        <v>135</v>
-      </c>
-      <c r="C134" t="s">
-        <v>142</v>
-      </c>
-      <c r="D134">
+      <c r="A134" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D134" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>177</v>
-      </c>
-      <c r="B135" t="s">
-        <v>143</v>
-      </c>
-      <c r="C135" t="s">
-        <v>177</v>
-      </c>
-      <c r="D135">
+      <c r="A135" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D135" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>144</v>
-      </c>
-      <c r="B136" t="s">
-        <v>143</v>
-      </c>
-      <c r="C136" t="s">
-        <v>144</v>
-      </c>
-      <c r="D136">
+      <c r="A136" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D137" s="5">
         <v>1</v>
@@ -2954,13 +2976,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D138" s="5">
         <v>1</v>
@@ -2968,13 +2990,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D139" s="5">
         <v>1</v>
@@ -2982,13 +3004,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="D140" s="5">
         <v>1</v>
@@ -2996,69 +3018,69 @@
     </row>
     <row r="141" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D141" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+        <v>186</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B142" t="s">
-        <v>143</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="C142" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" t="s">
-        <v>143</v>
-      </c>
-      <c r="C143" t="s">
-        <v>146</v>
-      </c>
-      <c r="D143">
+      <c r="C143" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D144" s="4">
+      <c r="A144" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D145" s="4">
         <v>1</v>
@@ -3066,153 +3088,154 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D146" s="4">
-        <v>1</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D147" s="4">
-        <v>1</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="6"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D148" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D149" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>188</v>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
       </c>
+      <c r="E151" s="6"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
       </c>
+      <c r="E152" s="6"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
       </c>
+      <c r="E153" s="6"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
       </c>
+      <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
       </c>
+      <c r="E155" s="4"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -3221,13 +3244,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -3236,13 +3259,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D158" s="4">
         <v>1</v>
@@ -3251,13 +3274,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D159" s="4">
         <v>1</v>
@@ -3266,13 +3289,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D160" s="4">
         <v>1</v>
@@ -3281,13 +3304,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D161" s="4">
         <v>1</v>
@@ -3296,13 +3319,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D162" s="4">
         <v>1</v>
@@ -3311,13 +3334,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D163" s="4">
         <v>1</v>
@@ -3326,13 +3349,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D164" s="4">
         <v>1</v>
@@ -3341,13 +3364,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D165" s="4">
         <v>1</v>
@@ -3356,13 +3379,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D166" s="4">
         <v>1</v>
@@ -3371,141 +3394,148 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D167" s="4">
         <v>1</v>
       </c>
-      <c r="E167" s="4"/>
+      <c r="E167" s="6"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D168" s="4">
-        <v>1</v>
-      </c>
-      <c r="E168" s="4"/>
+      <c r="A168" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D168" s="6">
+        <v>1</v>
+      </c>
+      <c r="E168" s="6"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D169" s="4">
-        <v>1</v>
-      </c>
+      <c r="A169" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169" s="6">
+        <v>1</v>
+      </c>
+      <c r="E169" s="6"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170" t="s">
-        <v>120</v>
-      </c>
-      <c r="C170" t="s">
-        <v>170</v>
-      </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
+      <c r="A170" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D170" s="6">
+        <v>1</v>
+      </c>
+      <c r="E170" s="6"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>171</v>
-      </c>
-      <c r="B171" t="s">
-        <v>120</v>
-      </c>
-      <c r="C171" t="s">
-        <v>171</v>
-      </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
+      <c r="A171" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D171" s="6">
+        <v>1</v>
+      </c>
+      <c r="E171" s="6"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172" t="s">
-        <v>120</v>
-      </c>
-      <c r="C172" t="s">
-        <v>172</v>
-      </c>
-      <c r="D172">
-        <v>1</v>
-      </c>
+      <c r="A172" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D172" s="6">
+        <v>1</v>
+      </c>
+      <c r="E172" s="6"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>173</v>
-      </c>
-      <c r="B173" t="s">
-        <v>120</v>
-      </c>
-      <c r="C173" t="s">
-        <v>173</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
+      <c r="A173" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173" s="6">
+        <v>1</v>
+      </c>
+      <c r="E173" s="6"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174" t="s">
-        <v>120</v>
-      </c>
-      <c r="C174" t="s">
-        <v>174</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
+      <c r="A174" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D174" s="6">
+        <v>1</v>
+      </c>
+      <c r="E174" s="6"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175" t="s">
-        <v>120</v>
-      </c>
-      <c r="C175" t="s">
-        <v>175</v>
-      </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
+      <c r="A175" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D175" s="6">
+        <v>1</v>
+      </c>
+      <c r="E175" s="6"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D176" s="6">
         <v>1</v>
@@ -3514,48 +3544,18 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D177" s="6">
         <v>1</v>
       </c>
       <c r="E177" s="6"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D178" s="6">
-        <v>1</v>
-      </c>
-      <c r="E178" s="6"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D179" s="6">
-        <v>1</v>
-      </c>
-      <c r="E179" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3563,16 +3563,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3581,7 +3571,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3798,24 +3788,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3823,7 +3806,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3842,6 +3825,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" removed="0"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata26feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA86EEF0-8C20-43A0-B496-9AF7F5285D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD133BE8-6671-4FB3-8653-864F76364970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="189">
   <si>
     <t>ScreenName</t>
   </si>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>CourtsApprovalAndAuditHistory</t>
+  </si>
+  <si>
+    <t>PetitionAllegation</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
   <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:D142"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3080,7 +3083,7 @@
         <v>145</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D145" s="4">
         <v>1</v>
@@ -3563,15 +3566,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3788,6 +3782,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3799,14 +3802,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3821,6 +3816,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata26feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdatamarch3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD133BE8-6671-4FB3-8653-864F76364970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89822640-0AAB-4B3D-9A6A-B1CD02120091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="194">
   <si>
     <t>ScreenName</t>
   </si>
@@ -491,6 +491,15 @@
     <t>CourtOfficerNotes</t>
   </si>
   <si>
+    <t>ReleasesOfInformationAndConsent</t>
+  </si>
+  <si>
+    <t>CourtsApprovalAndAuditHistory</t>
+  </si>
+  <si>
+    <t>CourtSubmitForApproval</t>
+  </si>
+  <si>
     <t>Participants</t>
   </si>
   <si>
@@ -512,6 +521,9 @@
     <t>CourtWorkItems</t>
   </si>
   <si>
+    <t>DocumentDistributions</t>
+  </si>
+  <si>
     <t>CaseFamilyTransfer</t>
   </si>
   <si>
@@ -596,13 +608,16 @@
     <t>PlacementNeeds</t>
   </si>
   <si>
-    <t>ReleasesOfInformationAndConsent</t>
-  </si>
-  <si>
-    <t>CourtsApprovalAndAuditHistory</t>
-  </si>
-  <si>
-    <t>PetitionAllegation</t>
+    <t>ProviderOptionContactLog</t>
+  </si>
+  <si>
+    <t>ServiceComponents</t>
+  </si>
+  <si>
+    <t>FolioTask</t>
+  </si>
+  <si>
+    <t>Specializations</t>
   </si>
 </sst>
 </file>
@@ -684,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -692,6 +707,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1815,7 +1831,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>36</v>
@@ -2851,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>138</v>
       </c>
@@ -2864,8 +2880,9 @@
       <c r="D129" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>139</v>
       </c>
@@ -2878,8 +2895,9 @@
       <c r="D130" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>140</v>
       </c>
@@ -2892,8 +2910,9 @@
       <c r="D131" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>141</v>
       </c>
@@ -2906,8 +2925,9 @@
       <c r="D132" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>142</v>
       </c>
@@ -2920,8 +2940,9 @@
       <c r="D133" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>143</v>
       </c>
@@ -2934,8 +2955,9 @@
       <c r="D134" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>144</v>
       </c>
@@ -2948,8 +2970,9 @@
       <c r="D135" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>146</v>
       </c>
@@ -2962,8 +2985,9 @@
       <c r="D136" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>147</v>
       </c>
@@ -2976,8 +3000,9 @@
       <c r="D137" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>148</v>
       </c>
@@ -2990,8 +3015,9 @@
       <c r="D138" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>149</v>
       </c>
@@ -3004,8 +3030,9 @@
       <c r="D139" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>150</v>
       </c>
@@ -3018,167 +3045,171 @@
       <c r="D140" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D141" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="D142" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B143" s="6" t="s">
+    <row r="143" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D143" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C143" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143" s="7">
+        <v>1</v>
+      </c>
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D144" s="6">
         <v>1</v>
       </c>
+      <c r="E144" s="6"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B145" s="4" t="s">
+      <c r="A145" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D145" s="4">
-        <v>1</v>
-      </c>
+      <c r="C145" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D145" s="6">
+        <v>1</v>
+      </c>
+      <c r="E145" s="6"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D146" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1</v>
+      </c>
+      <c r="E146" s="6"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="6"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="6"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="6"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D150" s="4">
-        <v>1</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D150" s="4"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="4" t="s">
-        <v>159</v>
+    <row r="151" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D151" s="4">
-        <v>1</v>
-      </c>
-      <c r="E151" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D151" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
@@ -3187,13 +3218,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
@@ -3202,43 +3233,43 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
       </c>
-      <c r="E154" s="4"/>
+      <c r="E154" s="6"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
       </c>
-      <c r="E155" s="4"/>
+      <c r="E155" s="6"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -3247,13 +3278,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -3262,13 +3293,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D158" s="4">
         <v>1</v>
@@ -3277,13 +3308,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D159" s="4">
         <v>1</v>
@@ -3292,13 +3323,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D160" s="4">
         <v>1</v>
@@ -3307,13 +3338,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D161" s="4">
         <v>1</v>
@@ -3322,13 +3353,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D162" s="4">
         <v>1</v>
@@ -3337,13 +3368,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D163" s="4">
         <v>1</v>
@@ -3352,13 +3383,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D164" s="4">
         <v>1</v>
@@ -3367,13 +3398,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D165" s="4">
         <v>1</v>
@@ -3382,13 +3413,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D166" s="4">
         <v>1</v>
@@ -3397,58 +3428,58 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D167" s="4">
         <v>1</v>
       </c>
-      <c r="E167" s="6"/>
+      <c r="E167" s="4"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D168" s="6">
-        <v>1</v>
-      </c>
-      <c r="E168" s="6"/>
+      <c r="A168" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168" s="4">
+        <v>1</v>
+      </c>
+      <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D169" s="6">
+      <c r="A169" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D169" s="4">
         <v>1</v>
       </c>
       <c r="E169" s="6"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D170" s="6">
         <v>1</v>
@@ -3457,13 +3488,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D171" s="6">
         <v>1</v>
@@ -3472,13 +3503,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D172" s="6">
         <v>1</v>
@@ -3487,13 +3518,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D173" s="6">
         <v>1</v>
@@ -3502,13 +3533,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D174" s="6">
         <v>1</v>
@@ -3517,13 +3548,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D175" s="6">
         <v>1</v>
@@ -3532,13 +3563,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D176" s="6">
         <v>1</v>
@@ -3547,18 +3578,104 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D177" s="6">
         <v>1</v>
       </c>
       <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D178" s="6">
+        <v>1</v>
+      </c>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D179" s="6">
+        <v>1</v>
+      </c>
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D180" s="6">
+        <v>1</v>
+      </c>
+      <c r="E180" s="6"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D181" s="6">
+        <v>1</v>
+      </c>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>191</v>
+      </c>
+      <c r="B182" t="s">
+        <v>136</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>192</v>
+      </c>
+      <c r="B183" t="s">
+        <v>38</v>
+      </c>
+      <c r="C183" t="s">
+        <v>192</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3566,6 +3683,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3782,7 +3909,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3791,17 +3918,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3820,20 +3947,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdatamarch3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89822640-0AAB-4B3D-9A6A-B1CD02120091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA08E56-985F-4CCA-8EA6-6BB214EE810D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="193">
   <si>
     <t>ScreenName</t>
   </si>
@@ -615,9 +615,6 @@
   </si>
   <si>
     <t>FolioTask</t>
-  </si>
-  <si>
-    <t>Specializations</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1831,7 +1828,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>36</v>
